--- a/DATASETS/Train_Random.xlsx
+++ b/DATASETS/Train_Random.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10464,8 +10464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U874"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
